--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DB897C-F1CD-E945-BD66-8D9CAAC665FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155BCADC-94C9-B14F-8D9F-683DBF542D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1651,10 +1651,10 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -1722,13 +1722,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2235,8 +2235,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D11" s="82">
         <f>SUM(G11:BJ11)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E11" s="50">
         <v>1</v>
@@ -2994,7 +2994,7 @@
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="104">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="K11" s="84"/>
       <c r="L11" s="62"/>
@@ -3211,11 +3211,11 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3283,10 +3283,12 @@
       <c r="B15" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="49">
+        <v>1</v>
+      </c>
       <c r="D15" s="82">
         <f>SUM(G15:BJ15)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="88" t="s">
@@ -3295,7 +3297,9 @@
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
       <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="102">
+        <v>0.75</v>
+      </c>
       <c r="K15" s="86"/>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
@@ -3356,17 +3360,21 @@
       <c r="B16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="49">
+        <v>1</v>
+      </c>
       <c r="D16" s="82">
         <f>SUM(G16:BJ16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="102">
+        <v>1</v>
+      </c>
       <c r="K16" s="56"/>
       <c r="L16" s="57"/>
       <c r="M16" s="58"/>
@@ -3498,11 +3506,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>73</v>
+        <v>69.5</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3571,11 +3579,11 @@
         <v>32</v>
       </c>
       <c r="C19" s="49">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="D19" s="82">
         <f>SUM(G19:BJ19)</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
@@ -3585,7 +3593,7 @@
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
       <c r="J19" s="102">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="57"/>
@@ -5322,7 +5330,7 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>91.5</v>
+        <v>90</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5624,7 +5632,7 @@
       </c>
       <c r="D3" s="79">
         <f>Zeitplanung!D9</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>
@@ -5637,11 +5645,11 @@
       <c r="B4" s="98"/>
       <c r="C4" s="79">
         <f>Zeitplanung!C14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="79">
         <f>Zeitplanung!D14</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="80"/>
@@ -5654,11 +5662,11 @@
       <c r="B5" s="98"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>73</v>
+        <v>69.5</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155BCADC-94C9-B14F-8D9F-683DBF542D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C66AE22-A0FD-C648-A9ED-FCA970D24988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2235,7 +2235,7 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C66AE22-A0FD-C648-A9ED-FCA970D24988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5AEA4-BA58-7D41-9FE5-B40250364A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>&lt;Projektname&gt;</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Anforderung NF001</t>
   </si>
   <si>
-    <t>Anforderung NF002</t>
-  </si>
-  <si>
     <t>Anforderung A001</t>
   </si>
   <si>
@@ -277,13 +271,19 @@
   </si>
   <si>
     <t>Anforderung A007</t>
+  </si>
+  <si>
+    <t>NoteWriter+</t>
+  </si>
+  <si>
+    <t>Anforderung A003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -1453,6 +1453,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,70 +1547,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1648,13 +1648,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.5</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -1728,7 +1728,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2235,11 +2235,11 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y24" activeCellId="1" sqref="W24 Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="5" customWidth="1"/>
@@ -2250,9 +2250,9 @@
     <col min="63" max="16384" width="12.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="25">
+    <row r="1" spans="1:62" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2284,7 +2284,7 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:62" ht="5.25" customHeight="1">
+    <row r="2" spans="1:62" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2348,7 +2348,7 @@
       <c r="BI2" s="6"/>
       <c r="BJ2" s="6"/>
     </row>
-    <row r="3" spans="1:62" ht="17.25" customHeight="1">
+    <row r="3" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2357,7 +2357,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="85"/>
       <c r="H3" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2414,7 +2414,7 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
     </row>
-    <row r="4" spans="1:62" ht="6.75" customHeight="1">
+    <row r="4" spans="1:62" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2478,7 +2478,7 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
     </row>
-    <row r="5" spans="1:62" ht="17.25" customHeight="1">
+    <row r="5" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2487,7 +2487,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="6"/>
@@ -2544,7 +2544,7 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
     </row>
-    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1">
+    <row r="6" spans="1:62" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2552,93 +2552,93 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1">
+    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="93" t="s">
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="93" t="s">
+      <c r="V7" s="109"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="95" t="s">
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="109"/>
+      <c r="AL7" s="109"/>
+      <c r="AM7" s="109"/>
+      <c r="AN7" s="109"/>
+      <c r="AO7" s="110"/>
+      <c r="AP7" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="95" t="s">
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="109"/>
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="109"/>
+      <c r="AV7" s="110"/>
+      <c r="AW7" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="93" t="s">
+      <c r="AX7" s="109"/>
+      <c r="AY7" s="109"/>
+      <c r="AZ7" s="109"/>
+      <c r="BA7" s="109"/>
+      <c r="BB7" s="109"/>
+      <c r="BC7" s="110"/>
+      <c r="BD7" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="93"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="96"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="109"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
+      <c r="BI7" s="109"/>
+      <c r="BJ7" s="112"/>
     </row>
-    <row r="8" spans="1:62" ht="45" customHeight="1">
+    <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -2653,187 +2653,187 @@
         <v>4</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="L8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="P8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="S8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="14" t="s">
+      <c r="T8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="W8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Z8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="AD8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="AG8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="14" t="s">
+      <c r="AH8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="AK8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="AN8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="AR8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="AU8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AV8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AY8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="BB8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE8" s="14" t="s">
+      <c r="BF8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AF8" s="14" t="s">
+      <c r="BI8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM8" s="14" t="s">
+      <c r="BJ8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AN8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BB8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ8" s="25" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="9" spans="1:62" ht="17.25" customHeight="1">
+    <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>10</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="41">
         <f>SUM(C10:C13)</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
@@ -2898,7 +2898,7 @@
       <c r="BI9" s="73"/>
       <c r="BJ9" s="77"/>
     </row>
-    <row r="10" spans="1:62" ht="17.25" customHeight="1">
+    <row r="10" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>101</v>
       </c>
@@ -2906,14 +2906,14 @@
         <v>12</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="48">
         <v>1</v>
       </c>
       <c r="F10" s="87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
@@ -2936,17 +2936,17 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="58"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="105"/>
       <c r="AF10" s="57"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="58"/>
       <c r="AI10" s="53"/>
       <c r="AJ10" s="54"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="105"/>
       <c r="AM10" s="57"/>
       <c r="AN10" s="57"/>
       <c r="AO10" s="58"/>
@@ -2972,12 +2972,12 @@
       <c r="BI10" s="57"/>
       <c r="BJ10" s="58"/>
     </row>
-    <row r="11" spans="1:62" ht="17.25" customHeight="1">
+    <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>102</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="49">
         <v>2</v>
@@ -2993,7 +2993,7 @@
       <c r="G11" s="59"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
-      <c r="J11" s="104">
+      <c r="J11" s="95">
         <v>0.75</v>
       </c>
       <c r="K11" s="84"/>
@@ -3017,7 +3017,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="58"/>
-      <c r="AB11" s="109"/>
+      <c r="AB11" s="100"/>
       <c r="AC11" s="61"/>
       <c r="AD11" s="64"/>
       <c r="AE11" s="64"/>
@@ -3053,15 +3053,15 @@
       <c r="BI11" s="57"/>
       <c r="BJ11" s="58"/>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1">
+    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>103</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="49">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="82">
         <f>SUM(G12:BJ12)</f>
@@ -3092,7 +3092,7 @@
       <c r="Y12" s="63"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
-      <c r="AB12" s="109"/>
+      <c r="AB12" s="100"/>
       <c r="AC12" s="61"/>
       <c r="AD12" s="64"/>
       <c r="AE12" s="64"/>
@@ -3128,22 +3128,22 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="58"/>
     </row>
-    <row r="13" spans="1:62" ht="17.25" customHeight="1">
+    <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>104</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="82"/>
       <c r="E13" s="50">
         <v>1</v>
       </c>
       <c r="F13" s="87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
@@ -3166,18 +3166,18 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="109"/>
+      <c r="AB13" s="100"/>
       <c r="AC13" s="61"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="67"/>
       <c r="AI13" s="59"/>
       <c r="AJ13" s="60"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="114"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="105"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="67"/>
       <c r="AP13" s="59"/>
@@ -3202,7 +3202,7 @@
       <c r="BI13" s="66"/>
       <c r="BJ13" s="67"/>
     </row>
-    <row r="14" spans="1:62" ht="17.25" customHeight="1">
+    <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>20</v>
       </c>
@@ -3276,12 +3276,12 @@
       <c r="BI14" s="73"/>
       <c r="BJ14" s="77"/>
     </row>
-    <row r="15" spans="1:62" ht="17.25" customHeight="1">
+    <row r="15" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>201</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="49">
         <v>1</v>
@@ -3292,12 +3292,12 @@
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="54"/>
       <c r="I15" s="55"/>
-      <c r="J15" s="102">
+      <c r="J15" s="93">
         <v>0.75</v>
       </c>
       <c r="K15" s="86"/>
@@ -3317,17 +3317,17 @@
       <c r="Y15" s="56"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="58"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
       <c r="AF15" s="57"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="58"/>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="54"/>
-      <c r="AK15" s="114"/>
-      <c r="AL15" s="114"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="58"/>
@@ -3353,12 +3353,12 @@
       <c r="BI15" s="57"/>
       <c r="BJ15" s="58"/>
     </row>
-    <row r="16" spans="1:62" ht="17.25" customHeight="1">
+    <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>202</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="49">
         <v>1</v>
@@ -3372,7 +3372,7 @@
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
       <c r="I16" s="55"/>
-      <c r="J16" s="102">
+      <c r="J16" s="93">
         <v>1</v>
       </c>
       <c r="K16" s="56"/>
@@ -3392,17 +3392,17 @@
       <c r="Y16" s="56"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="58"/>
-      <c r="AB16" s="109"/>
+      <c r="AB16" s="100"/>
       <c r="AC16" s="61"/>
-      <c r="AD16" s="114"/>
-      <c r="AE16" s="114"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
       <c r="AF16" s="57"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="58"/>
       <c r="AI16" s="59"/>
       <c r="AJ16" s="60"/>
-      <c r="AK16" s="114"/>
-      <c r="AL16" s="114"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="105"/>
       <c r="AM16" s="57"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="58"/>
@@ -3428,7 +3428,7 @@
       <c r="BI16" s="57"/>
       <c r="BJ16" s="58"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>203</v>
       </c>
@@ -3461,17 +3461,17 @@
       <c r="Y17" s="56"/>
       <c r="Z17" s="57"/>
       <c r="AA17" s="58"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="114"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
       <c r="AF17" s="57"/>
       <c r="AG17" s="57"/>
       <c r="AH17" s="58"/>
       <c r="AI17" s="68"/>
       <c r="AJ17" s="69"/>
-      <c r="AK17" s="114"/>
-      <c r="AL17" s="114"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="105"/>
       <c r="AM17" s="57"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="58"/>
@@ -3497,7 +3497,7 @@
       <c r="BI17" s="57"/>
       <c r="BJ17" s="58"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>30</v>
       </c>
@@ -3506,11 +3506,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>69.5</v>
+        <v>68</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3571,19 +3571,19 @@
       <c r="BI18" s="73"/>
       <c r="BJ18" s="77"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>301</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="82">
         <f>SUM(G19:BJ19)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="50">
         <v>1</v>
@@ -3592,17 +3592,19 @@
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="102">
+      <c r="J19" s="93">
         <v>1.5</v>
       </c>
-      <c r="K19" s="101"/>
+      <c r="K19" s="92">
+        <v>0.5</v>
+      </c>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
       <c r="N19" s="53"/>
       <c r="O19" s="54"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="106"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="97"/>
       <c r="S19" s="57"/>
       <c r="T19" s="58"/>
       <c r="U19" s="53"/>
@@ -3612,17 +3614,17 @@
       <c r="Y19" s="56"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="58"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="114"/>
-      <c r="AE19" s="114"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
       <c r="AF19" s="57"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="58"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="54"/>
-      <c r="AK19" s="114"/>
-      <c r="AL19" s="114"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="105"/>
       <c r="AM19" s="57"/>
       <c r="AN19" s="57"/>
       <c r="AO19" s="58"/>
@@ -3648,12 +3650,12 @@
       <c r="BI19" s="57"/>
       <c r="BJ19" s="58"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>302</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="49">
         <v>12</v>
@@ -3670,34 +3672,34 @@
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="103"/>
+      <c r="K20" s="94"/>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="103"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="103"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="94"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
-      <c r="AB20" s="109"/>
+      <c r="AB20" s="100"/>
       <c r="AC20" s="61"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
+      <c r="AD20" s="105"/>
+      <c r="AE20" s="105"/>
       <c r="AF20" s="57"/>
       <c r="AG20" s="57"/>
       <c r="AH20" s="58"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="60"/>
-      <c r="AK20" s="114"/>
-      <c r="AL20" s="114"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="105"/>
       <c r="AM20" s="57"/>
       <c r="AN20" s="57"/>
       <c r="AO20" s="58"/>
@@ -3723,15 +3725,15 @@
       <c r="BI20" s="57"/>
       <c r="BJ20" s="58"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="82">
         <f t="shared" si="0"/>
@@ -3745,13 +3747,13 @@
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="103"/>
+      <c r="K21" s="94"/>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="55"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3762,17 +3764,17 @@
       <c r="Y21" s="56"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
-      <c r="AB21" s="109"/>
+      <c r="AB21" s="100"/>
       <c r="AC21" s="61"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="114"/>
+      <c r="AD21" s="105"/>
+      <c r="AE21" s="105"/>
       <c r="AF21" s="57"/>
       <c r="AG21" s="57"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="59"/>
       <c r="AJ21" s="60"/>
-      <c r="AK21" s="114"/>
-      <c r="AL21" s="114"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="105"/>
       <c r="AM21" s="57"/>
       <c r="AN21" s="57"/>
       <c r="AO21" s="58"/>
@@ -3798,15 +3800,15 @@
       <c r="BI21" s="57"/>
       <c r="BJ21" s="58"/>
     </row>
-    <row r="22" spans="1:62" ht="17.25" customHeight="1">
+    <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22" s="82">
         <f t="shared" si="0"/>
@@ -3825,29 +3827,29 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="103"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="106"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="97"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
-      <c r="AB22" s="109"/>
+      <c r="AB22" s="100"/>
       <c r="AC22" s="61"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="114"/>
+      <c r="AD22" s="105"/>
+      <c r="AE22" s="105"/>
       <c r="AF22" s="57"/>
       <c r="AG22" s="57"/>
       <c r="AH22" s="58"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="60"/>
-      <c r="AK22" s="114"/>
-      <c r="AL22" s="114"/>
+      <c r="AK22" s="105"/>
+      <c r="AL22" s="105"/>
       <c r="AM22" s="57"/>
       <c r="AN22" s="57"/>
       <c r="AO22" s="58"/>
@@ -3873,15 +3875,15 @@
       <c r="BI22" s="57"/>
       <c r="BJ22" s="58"/>
     </row>
-    <row r="23" spans="1:62" ht="17.25" customHeight="1">
+    <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>305</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
@@ -3902,17 +3904,17 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="56"/>
+      <c r="R23" s="94"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="103"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="97"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
-      <c r="AB23" s="109"/>
+      <c r="AB23" s="100"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="64"/>
       <c r="AE23" s="64"/>
@@ -3948,12 +3950,12 @@
       <c r="BI23" s="57"/>
       <c r="BJ23" s="58"/>
     </row>
-    <row r="24" spans="1:62" ht="17.25" customHeight="1">
+    <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C24" s="49">
         <v>5</v>
@@ -3982,22 +3984,22 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="103"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="97"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="109"/>
+      <c r="AB24" s="100"/>
       <c r="AC24" s="61"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
       <c r="AF24" s="57"/>
       <c r="AG24" s="57"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="59"/>
       <c r="AJ24" s="60"/>
-      <c r="AK24" s="114"/>
-      <c r="AL24" s="114"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="105"/>
       <c r="AM24" s="57"/>
       <c r="AN24" s="57"/>
       <c r="AO24" s="58"/>
@@ -4023,12 +4025,12 @@
       <c r="BI24" s="57"/>
       <c r="BJ24" s="58"/>
     </row>
-    <row r="25" spans="1:62" ht="17.25" customHeight="1">
+    <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="49">
         <v>4</v>
@@ -4057,22 +4059,22 @@
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="106"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="97"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="115"/>
+      <c r="AB25" s="106"/>
       <c r="AC25" s="84"/>
-      <c r="AD25" s="114"/>
-      <c r="AE25" s="114"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="105"/>
       <c r="AF25" s="57"/>
       <c r="AG25" s="57"/>
       <c r="AH25" s="58"/>
       <c r="AI25" s="59"/>
       <c r="AJ25" s="60"/>
-      <c r="AK25" s="114"/>
-      <c r="AL25" s="114"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="105"/>
       <c r="AM25" s="57"/>
       <c r="AN25" s="57"/>
       <c r="AO25" s="58"/>
@@ -4098,12 +4100,12 @@
       <c r="BI25" s="57"/>
       <c r="BJ25" s="58"/>
     </row>
-    <row r="26" spans="1:62" ht="17.25" customHeight="1">
+    <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>308</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="49">
         <v>4</v>
@@ -4135,17 +4137,17 @@
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="115"/>
+      <c r="AB26" s="106"/>
       <c r="AC26" s="84"/>
-      <c r="AD26" s="114"/>
-      <c r="AE26" s="114"/>
+      <c r="AD26" s="105"/>
+      <c r="AE26" s="105"/>
       <c r="AF26" s="57"/>
       <c r="AG26" s="57"/>
       <c r="AH26" s="58"/>
       <c r="AI26" s="59"/>
       <c r="AJ26" s="60"/>
-      <c r="AK26" s="114"/>
-      <c r="AL26" s="114"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="105"/>
       <c r="AM26" s="57"/>
       <c r="AN26" s="57"/>
       <c r="AO26" s="58"/>
@@ -4171,12 +4173,12 @@
       <c r="BI26" s="57"/>
       <c r="BJ26" s="58"/>
     </row>
-    <row r="27" spans="1:62" ht="17.25" customHeight="1">
+    <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>309</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="49">
         <v>5</v>
@@ -4208,16 +4210,16 @@
       <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
-      <c r="AC27" s="115"/>
-      <c r="AD27" s="114"/>
-      <c r="AE27" s="114"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
       <c r="AF27" s="57"/>
       <c r="AG27" s="57"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="59"/>
       <c r="AJ27" s="60"/>
-      <c r="AK27" s="114"/>
-      <c r="AL27" s="114"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="105"/>
       <c r="AM27" s="57"/>
       <c r="AN27" s="57"/>
       <c r="AO27" s="58"/>
@@ -4243,12 +4245,12 @@
       <c r="BI27" s="57"/>
       <c r="BJ27" s="58"/>
     </row>
-    <row r="28" spans="1:62" ht="17.25" customHeight="1">
+    <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>310</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="49">
         <v>3</v>
@@ -4280,17 +4282,17 @@
       <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="114"/>
-      <c r="AE28" s="114"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
       <c r="AF28" s="57"/>
       <c r="AG28" s="57"/>
       <c r="AH28" s="58"/>
       <c r="AI28" s="59"/>
       <c r="AJ28" s="60"/>
-      <c r="AK28" s="114"/>
-      <c r="AL28" s="114"/>
+      <c r="AK28" s="105"/>
+      <c r="AL28" s="105"/>
       <c r="AM28" s="57"/>
       <c r="AN28" s="57"/>
       <c r="AO28" s="58"/>
@@ -4316,12 +4318,12 @@
       <c r="BI28" s="57"/>
       <c r="BJ28" s="58"/>
     </row>
-    <row r="29" spans="1:62" ht="17.25" customHeight="1">
+    <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>311</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="49">
         <v>5</v>
@@ -4353,23 +4355,23 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="112"/>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="105"/>
       <c r="AF29" s="57"/>
       <c r="AG29" s="57"/>
       <c r="AH29" s="58"/>
       <c r="AI29" s="70"/>
       <c r="AJ29" s="71"/>
-      <c r="AK29" s="114"/>
-      <c r="AL29" s="114"/>
+      <c r="AK29" s="105"/>
+      <c r="AL29" s="105"/>
       <c r="AM29" s="57"/>
       <c r="AN29" s="57"/>
       <c r="AO29" s="58"/>
       <c r="AP29" s="70"/>
       <c r="AQ29" s="71"/>
-      <c r="AR29" s="102"/>
+      <c r="AR29" s="93"/>
       <c r="AS29" s="55"/>
       <c r="AT29" s="56"/>
       <c r="AU29" s="57"/>
@@ -4389,7 +4391,7 @@
       <c r="BI29" s="57"/>
       <c r="BJ29" s="58"/>
     </row>
-    <row r="30" spans="1:62" ht="17.25" customHeight="1">
+    <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>312</v>
       </c>
@@ -4422,23 +4424,23 @@
       <c r="Y30" s="56"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="105"/>
+      <c r="AE30" s="105"/>
       <c r="AF30" s="57"/>
       <c r="AG30" s="57"/>
       <c r="AH30" s="58"/>
       <c r="AI30" s="68"/>
       <c r="AJ30" s="69"/>
-      <c r="AK30" s="114"/>
-      <c r="AL30" s="114"/>
+      <c r="AK30" s="105"/>
+      <c r="AL30" s="105"/>
       <c r="AM30" s="57"/>
       <c r="AN30" s="57"/>
       <c r="AO30" s="58"/>
       <c r="AP30" s="68"/>
       <c r="AQ30" s="69"/>
-      <c r="AR30" s="105"/>
+      <c r="AR30" s="96"/>
       <c r="AS30" s="55"/>
       <c r="AT30" s="56"/>
       <c r="AU30" s="57"/>
@@ -4458,7 +4460,7 @@
       <c r="BI30" s="57"/>
       <c r="BJ30" s="58"/>
     </row>
-    <row r="31" spans="1:62" ht="17.25" customHeight="1">
+    <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>40</v>
       </c>
@@ -4532,12 +4534,12 @@
       <c r="BI31" s="73"/>
       <c r="BJ31" s="77"/>
     </row>
-    <row r="32" spans="1:62" ht="17.25" customHeight="1">
+    <row r="32" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>401</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="49">
         <v>1.5</v>
@@ -4569,24 +4571,24 @@
       <c r="Y32" s="56"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="114"/>
-      <c r="AE32" s="114"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="105"/>
+      <c r="AE32" s="105"/>
       <c r="AF32" s="57"/>
       <c r="AG32" s="57"/>
       <c r="AH32" s="58"/>
       <c r="AI32" s="53"/>
       <c r="AJ32" s="54"/>
-      <c r="AK32" s="114"/>
-      <c r="AL32" s="114"/>
+      <c r="AK32" s="105"/>
+      <c r="AL32" s="105"/>
       <c r="AM32" s="57"/>
       <c r="AN32" s="57"/>
       <c r="AO32" s="58"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="105"/>
+      <c r="AR32" s="93"/>
+      <c r="AS32" s="96"/>
       <c r="AT32" s="56"/>
       <c r="AU32" s="57"/>
       <c r="AV32" s="58"/>
@@ -4605,12 +4607,12 @@
       <c r="BI32" s="57"/>
       <c r="BJ32" s="58"/>
     </row>
-    <row r="33" spans="1:62" ht="17.25" customHeight="1">
+    <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>402</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="49">
         <v>1.5</v>
@@ -4642,24 +4644,24 @@
       <c r="Y33" s="56"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
       <c r="AF33" s="57"/>
       <c r="AG33" s="57"/>
       <c r="AH33" s="58"/>
       <c r="AI33" s="59"/>
       <c r="AJ33" s="60"/>
-      <c r="AK33" s="114"/>
-      <c r="AL33" s="114"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="105"/>
       <c r="AM33" s="57"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="58"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
-      <c r="AR33" s="102"/>
-      <c r="AS33" s="105"/>
+      <c r="AR33" s="93"/>
+      <c r="AS33" s="96"/>
       <c r="AT33" s="56"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
@@ -4678,12 +4680,12 @@
       <c r="BI33" s="57"/>
       <c r="BJ33" s="58"/>
     </row>
-    <row r="34" spans="1:62" ht="17.25" customHeight="1">
+    <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>403</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="49">
         <v>3</v>
@@ -4715,24 +4717,24 @@
       <c r="Y34" s="56"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="114"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="105"/>
+      <c r="AE34" s="105"/>
       <c r="AF34" s="57"/>
       <c r="AG34" s="57"/>
       <c r="AH34" s="58"/>
       <c r="AI34" s="59"/>
       <c r="AJ34" s="60"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="114"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="105"/>
       <c r="AM34" s="57"/>
       <c r="AN34" s="57"/>
       <c r="AO34" s="58"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="105"/>
+      <c r="AR34" s="93"/>
+      <c r="AS34" s="96"/>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
@@ -4751,7 +4753,7 @@
       <c r="BI34" s="57"/>
       <c r="BJ34" s="58"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>404</v>
       </c>
@@ -4784,17 +4786,17 @@
       <c r="Y35" s="56"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="58"/>
-      <c r="AB35" s="110"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="114"/>
+      <c r="AB35" s="101"/>
+      <c r="AC35" s="102"/>
+      <c r="AD35" s="105"/>
+      <c r="AE35" s="105"/>
       <c r="AF35" s="57"/>
       <c r="AG35" s="57"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="68"/>
       <c r="AJ35" s="69"/>
-      <c r="AK35" s="114"/>
-      <c r="AL35" s="114"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="105"/>
       <c r="AM35" s="57"/>
       <c r="AN35" s="57"/>
       <c r="AO35" s="58"/>
@@ -4820,7 +4822,7 @@
       <c r="BI35" s="57"/>
       <c r="BJ35" s="58"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" customHeight="1">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>50</v>
       </c>
@@ -4894,12 +4896,12 @@
       <c r="BI36" s="73"/>
       <c r="BJ36" s="77"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" customHeight="1">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>501</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="82">
@@ -4929,17 +4931,17 @@
       <c r="Y37" s="56"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="58"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="114"/>
-      <c r="AE37" s="114"/>
+      <c r="AB37" s="98"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="105"/>
+      <c r="AE37" s="105"/>
       <c r="AF37" s="57"/>
       <c r="AG37" s="57"/>
       <c r="AH37" s="58"/>
       <c r="AI37" s="53"/>
       <c r="AJ37" s="54"/>
-      <c r="AK37" s="114"/>
-      <c r="AL37" s="114"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="105"/>
       <c r="AM37" s="57"/>
       <c r="AN37" s="57"/>
       <c r="AO37" s="58"/>
@@ -4965,7 +4967,7 @@
       <c r="BI37" s="57"/>
       <c r="BJ37" s="58"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" customHeight="1">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>502</v>
       </c>
@@ -4998,17 +5000,17 @@
       <c r="Y38" s="56"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="58"/>
-      <c r="AB38" s="110"/>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="114"/>
+      <c r="AB38" s="101"/>
+      <c r="AC38" s="102"/>
+      <c r="AD38" s="105"/>
+      <c r="AE38" s="105"/>
       <c r="AF38" s="57"/>
       <c r="AG38" s="57"/>
       <c r="AH38" s="58"/>
       <c r="AI38" s="68"/>
       <c r="AJ38" s="69"/>
-      <c r="AK38" s="114"/>
-      <c r="AL38" s="114"/>
+      <c r="AK38" s="105"/>
+      <c r="AL38" s="105"/>
       <c r="AM38" s="57"/>
       <c r="AN38" s="57"/>
       <c r="AO38" s="58"/>
@@ -5034,7 +5036,7 @@
       <c r="BI38" s="57"/>
       <c r="BJ38" s="58"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <v>60</v>
       </c>
@@ -5108,12 +5110,12 @@
       <c r="BI39" s="73"/>
       <c r="BJ39" s="77"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" customHeight="1">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>601</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="49">
         <v>5</v>
@@ -5145,24 +5147,24 @@
       <c r="Y40" s="56"/>
       <c r="Z40" s="57"/>
       <c r="AA40" s="58"/>
-      <c r="AB40" s="107"/>
-      <c r="AC40" s="108"/>
-      <c r="AD40" s="114"/>
-      <c r="AE40" s="114"/>
+      <c r="AB40" s="98"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="105"/>
+      <c r="AE40" s="105"/>
       <c r="AF40" s="57"/>
       <c r="AG40" s="57"/>
       <c r="AH40" s="58"/>
       <c r="AI40" s="53"/>
       <c r="AJ40" s="54"/>
-      <c r="AK40" s="114"/>
-      <c r="AL40" s="114"/>
+      <c r="AK40" s="105"/>
+      <c r="AL40" s="105"/>
       <c r="AM40" s="57"/>
       <c r="AN40" s="57"/>
       <c r="AO40" s="58"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
-      <c r="AR40" s="102"/>
-      <c r="AS40" s="102"/>
+      <c r="AR40" s="93"/>
+      <c r="AS40" s="93"/>
       <c r="AT40" s="56"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
@@ -5181,12 +5183,12 @@
       <c r="BI40" s="57"/>
       <c r="BJ40" s="58"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" customHeight="1">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>602</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="49">
         <v>3</v>
@@ -5218,24 +5220,24 @@
       <c r="Y41" s="56"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="58"/>
-      <c r="AB41" s="109"/>
+      <c r="AB41" s="100"/>
       <c r="AC41" s="61"/>
-      <c r="AD41" s="114"/>
-      <c r="AE41" s="114"/>
+      <c r="AD41" s="105"/>
+      <c r="AE41" s="105"/>
       <c r="AF41" s="57"/>
       <c r="AG41" s="57"/>
       <c r="AH41" s="58"/>
       <c r="AI41" s="59"/>
       <c r="AJ41" s="60"/>
-      <c r="AK41" s="114"/>
-      <c r="AL41" s="114"/>
+      <c r="AK41" s="105"/>
+      <c r="AL41" s="105"/>
       <c r="AM41" s="57"/>
       <c r="AN41" s="57"/>
       <c r="AO41" s="58"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
-      <c r="AR41" s="102"/>
-      <c r="AS41" s="102"/>
+      <c r="AR41" s="93"/>
+      <c r="AS41" s="93"/>
       <c r="AT41" s="56"/>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
@@ -5254,7 +5256,7 @@
       <c r="BI41" s="57"/>
       <c r="BJ41" s="58"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>603</v>
       </c>
@@ -5287,17 +5289,17 @@
       <c r="Y42" s="56"/>
       <c r="Z42" s="57"/>
       <c r="AA42" s="58"/>
-      <c r="AB42" s="110"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="114"/>
-      <c r="AE42" s="114"/>
+      <c r="AB42" s="101"/>
+      <c r="AC42" s="102"/>
+      <c r="AD42" s="105"/>
+      <c r="AE42" s="105"/>
       <c r="AF42" s="57"/>
       <c r="AG42" s="57"/>
       <c r="AH42" s="58"/>
       <c r="AI42" s="68"/>
       <c r="AJ42" s="69"/>
-      <c r="AK42" s="114"/>
-      <c r="AL42" s="114"/>
+      <c r="AK42" s="105"/>
+      <c r="AL42" s="105"/>
       <c r="AM42" s="57"/>
       <c r="AN42" s="57"/>
       <c r="AO42" s="58"/>
@@ -5323,18 +5325,18 @@
       <c r="BI42" s="57"/>
       <c r="BJ42" s="58"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5356,7 +5358,7 @@
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5598,7 +5600,7 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
@@ -5607,12 +5609,12 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1"/>
-    <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="99" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="100"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="78" t="s">
         <v>14</v>
       </c>
@@ -5620,15 +5622,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A3" s="97" t="str">
+    <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="113" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="79">
         <f>Zeitplanung!C9</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="79">
         <f>Zeitplanung!D9</f>
@@ -5637,12 +5639,12 @@
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>
     </row>
-    <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="97" t="str">
+    <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="113" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="98"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="79">
         <f>Zeitplanung!C14</f>
         <v>2</v>
@@ -5654,29 +5656,29 @@
       <c r="E4" s="81"/>
       <c r="F4" s="80"/>
     </row>
-    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="97" t="str">
+    <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>69.5</v>
+        <v>68</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
     </row>
-    <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A6" s="97" t="str">
+    <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="113" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="79">
         <f>Zeitplanung!C31</f>
         <v>6</v>
@@ -5687,12 +5689,12 @@
       </c>
       <c r="F6" s="80"/>
     </row>
-    <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A7" s="97" t="str">
+    <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="113" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="79">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5703,12 +5705,12 @@
       </c>
       <c r="F7" s="80"/>
     </row>
-    <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A8" s="97" t="str">
+    <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="113" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="79">
         <f>Zeitplanung!C39</f>
         <v>8</v>
@@ -5719,7 +5721,7 @@
       </c>
       <c r="F8" s="80"/>
     </row>
-    <row r="9" spans="1:6" ht="16" thickTop="1"/>
+    <row r="9" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A7:B7"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5AEA4-BA58-7D41-9FE5-B40250364A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6303E7FA-A063-D649-B36D-7AAFA46219AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1654,7 +1654,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -2235,8 +2235,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y24" activeCellId="1" sqref="W24 Y24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3733,7 +3733,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="82">
         <f t="shared" si="0"/>
@@ -3883,7 +3883,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
@@ -3958,7 +3958,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
@@ -3984,8 +3984,8 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
       <c r="Y24" s="97"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
@@ -4033,7 +4033,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
@@ -4061,7 +4061,7 @@
       <c r="V25" s="60"/>
       <c r="W25" s="96"/>
       <c r="X25" s="96"/>
-      <c r="Y25" s="97"/>
+      <c r="Y25" s="94"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="106"/>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5664,7 +5664,7 @@
       <c r="B5" s="114"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6303E7FA-A063-D649-B36D-7AAFA46219AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B4E0-9EBC-0641-9557-43748A2B4821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,7 @@
             <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Besprechung Anforderungsanalyse-Dokument (mit Urs/Kilian)
 </t>
@@ -97,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Nr.</t>
   </si>
@@ -249,9 +250,6 @@
     <t>KW 53</t>
   </si>
   <si>
-    <t>Anforderung NF001</t>
-  </si>
-  <si>
     <t>Anforderung A001</t>
   </si>
   <si>
@@ -267,16 +265,13 @@
     <t>Anforderung A004</t>
   </si>
   <si>
-    <t>Anforderung A006</t>
-  </si>
-  <si>
-    <t>Anforderung A007</t>
-  </si>
-  <si>
     <t>NoteWriter+</t>
   </si>
   <si>
     <t>Anforderung A003</t>
+  </si>
+  <si>
+    <t>Anforderung NF001 &amp; NF002</t>
   </si>
 </sst>
 </file>
@@ -374,12 +369,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -391,6 +380,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1144,7 +1140,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1453,7 +1449,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1494,14 +1490,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1547,6 +1535,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1651,10 +1654,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -1725,7 +1728,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -2235,8 +2238,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2252,7 +2255,7 @@
   <sheetData>
     <row r="1" spans="1:62" ht="25" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2555,88 +2558,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="108"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="109" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="109" t="s">
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="111" t="s">
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="109" t="s">
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="110"/>
-      <c r="AP7" s="111" t="s">
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="110"/>
-      <c r="AW7" s="109" t="s">
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
-      <c r="AZ7" s="109"/>
-      <c r="BA7" s="109"/>
-      <c r="BB7" s="109"/>
-      <c r="BC7" s="110"/>
-      <c r="BD7" s="111" t="s">
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="107"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="108"/>
+      <c r="BD7" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="BE7" s="109"/>
-      <c r="BF7" s="109"/>
-      <c r="BG7" s="109"/>
-      <c r="BH7" s="109"/>
-      <c r="BI7" s="109"/>
-      <c r="BJ7" s="112"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="107"/>
+      <c r="BG7" s="107"/>
+      <c r="BH7" s="107"/>
+      <c r="BI7" s="107"/>
+      <c r="BJ7" s="110"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2938,15 +2941,15 @@
       <c r="AA10" s="58"/>
       <c r="AB10" s="98"/>
       <c r="AC10" s="99"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
       <c r="AF10" s="57"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="58"/>
       <c r="AI10" s="53"/>
       <c r="AJ10" s="54"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103"/>
       <c r="AM10" s="57"/>
       <c r="AN10" s="57"/>
       <c r="AO10" s="58"/>
@@ -3168,16 +3171,16 @@
       <c r="AA13" s="67"/>
       <c r="AB13" s="100"/>
       <c r="AC13" s="61"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="105"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
       <c r="AG13" s="66"/>
       <c r="AH13" s="67"/>
       <c r="AI13" s="59"/>
       <c r="AJ13" s="60"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="105"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="67"/>
       <c r="AP13" s="59"/>
@@ -3211,11 +3214,11 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -3284,11 +3287,11 @@
         <v>26</v>
       </c>
       <c r="C15" s="49">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="82">
         <f>SUM(G15:BJ15)</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="88" t="s">
@@ -3300,7 +3303,9 @@
       <c r="J15" s="93">
         <v>0.75</v>
       </c>
-      <c r="K15" s="86"/>
+      <c r="K15" s="86">
+        <v>0.5</v>
+      </c>
       <c r="L15" s="57"/>
       <c r="M15" s="58"/>
       <c r="N15" s="53"/>
@@ -3319,15 +3324,15 @@
       <c r="AA15" s="58"/>
       <c r="AB15" s="98"/>
       <c r="AC15" s="99"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
       <c r="AF15" s="57"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="58"/>
       <c r="AI15" s="53"/>
       <c r="AJ15" s="54"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="105"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="103"/>
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="58"/>
@@ -3394,15 +3399,15 @@
       <c r="AA16" s="58"/>
       <c r="AB16" s="100"/>
       <c r="AC16" s="61"/>
-      <c r="AD16" s="105"/>
-      <c r="AE16" s="105"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
       <c r="AF16" s="57"/>
       <c r="AG16" s="57"/>
       <c r="AH16" s="58"/>
       <c r="AI16" s="59"/>
       <c r="AJ16" s="60"/>
-      <c r="AK16" s="105"/>
-      <c r="AL16" s="105"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="103"/>
       <c r="AM16" s="57"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="58"/>
@@ -3463,15 +3468,15 @@
       <c r="AA17" s="58"/>
       <c r="AB17" s="101"/>
       <c r="AC17" s="102"/>
-      <c r="AD17" s="105"/>
-      <c r="AE17" s="105"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
       <c r="AF17" s="57"/>
       <c r="AG17" s="57"/>
       <c r="AH17" s="58"/>
       <c r="AI17" s="68"/>
       <c r="AJ17" s="69"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
       <c r="AM17" s="57"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="58"/>
@@ -3506,7 +3511,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3616,15 +3621,15 @@
       <c r="AA19" s="58"/>
       <c r="AB19" s="98"/>
       <c r="AC19" s="99"/>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
       <c r="AF19" s="57"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="58"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="54"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="105"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="103"/>
       <c r="AM19" s="57"/>
       <c r="AN19" s="57"/>
       <c r="AO19" s="58"/>
@@ -3691,15 +3696,15 @@
       <c r="AA20" s="58"/>
       <c r="AB20" s="100"/>
       <c r="AC20" s="61"/>
-      <c r="AD20" s="105"/>
-      <c r="AE20" s="105"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
       <c r="AF20" s="57"/>
       <c r="AG20" s="57"/>
       <c r="AH20" s="58"/>
       <c r="AI20" s="59"/>
       <c r="AJ20" s="60"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
       <c r="AM20" s="57"/>
       <c r="AN20" s="57"/>
       <c r="AO20" s="58"/>
@@ -3730,10 +3735,10 @@
         <v>303</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C21" s="49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" s="82">
         <f t="shared" si="0"/>
@@ -3766,15 +3771,15 @@
       <c r="AA21" s="58"/>
       <c r="AB21" s="100"/>
       <c r="AC21" s="61"/>
-      <c r="AD21" s="105"/>
-      <c r="AE21" s="105"/>
+      <c r="AD21" s="103"/>
+      <c r="AE21" s="103"/>
       <c r="AF21" s="57"/>
       <c r="AG21" s="57"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="59"/>
       <c r="AJ21" s="60"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="105"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="103"/>
       <c r="AM21" s="57"/>
       <c r="AN21" s="57"/>
       <c r="AO21" s="58"/>
@@ -3805,7 +3810,7 @@
         <v>304</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="49">
         <v>8</v>
@@ -3828,28 +3833,27 @@
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
       <c r="P22" s="96"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
+      <c r="R22" s="93"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="96"/>
+      <c r="W22" s="93"/>
       <c r="X22" s="96"/>
       <c r="Y22" s="97"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="100"/>
       <c r="AC22" s="61"/>
-      <c r="AD22" s="105"/>
-      <c r="AE22" s="105"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="103"/>
       <c r="AF22" s="57"/>
       <c r="AG22" s="57"/>
       <c r="AH22" s="58"/>
       <c r="AI22" s="59"/>
       <c r="AJ22" s="60"/>
-      <c r="AK22" s="105"/>
-      <c r="AL22" s="105"/>
+      <c r="AK22" s="103"/>
+      <c r="AL22" s="103"/>
       <c r="AM22" s="57"/>
       <c r="AN22" s="57"/>
       <c r="AO22" s="58"/>
@@ -3883,7 +3887,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
@@ -3910,7 +3914,7 @@
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="95"/>
-      <c r="X23" s="84"/>
+      <c r="X23" s="95"/>
       <c r="Y23" s="97"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
@@ -3955,10 +3959,10 @@
         <v>306</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C24" s="49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
@@ -3984,22 +3988,22 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="93"/>
+      <c r="W24" s="96"/>
       <c r="X24" s="93"/>
-      <c r="Y24" s="97"/>
+      <c r="Y24" s="94"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
       <c r="AF24" s="57"/>
       <c r="AG24" s="57"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="59"/>
       <c r="AJ24" s="60"/>
-      <c r="AK24" s="105"/>
-      <c r="AL24" s="105"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="103"/>
       <c r="AM24" s="57"/>
       <c r="AN24" s="57"/>
       <c r="AO24" s="58"/>
@@ -4030,10 +4034,10 @@
         <v>307</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" s="49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
@@ -4061,20 +4065,20 @@
       <c r="V25" s="60"/>
       <c r="W25" s="96"/>
       <c r="X25" s="96"/>
-      <c r="Y25" s="94"/>
+      <c r="Y25" s="97"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="105"/>
-      <c r="AE25" s="105"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="103"/>
+      <c r="AE25" s="103"/>
       <c r="AF25" s="57"/>
       <c r="AG25" s="57"/>
       <c r="AH25" s="58"/>
       <c r="AI25" s="59"/>
       <c r="AJ25" s="60"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="103"/>
       <c r="AM25" s="57"/>
       <c r="AN25" s="57"/>
       <c r="AO25" s="58"/>
@@ -4108,7 +4112,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
@@ -4137,23 +4141,23 @@
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="106"/>
+      <c r="AB26" s="115"/>
       <c r="AC26" s="84"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="103"/>
       <c r="AF26" s="57"/>
       <c r="AG26" s="57"/>
       <c r="AH26" s="58"/>
       <c r="AI26" s="59"/>
       <c r="AJ26" s="60"/>
-      <c r="AK26" s="105"/>
-      <c r="AL26" s="105"/>
+      <c r="AK26" s="103"/>
+      <c r="AL26" s="103"/>
       <c r="AM26" s="57"/>
       <c r="AN26" s="57"/>
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="55"/>
+      <c r="AR26" s="93"/>
       <c r="AS26" s="55"/>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
@@ -4178,10 +4182,10 @@
         <v>309</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="82">
         <f t="shared" si="0"/>
@@ -4210,23 +4214,24 @@
       <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="115"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
       <c r="AF27" s="57"/>
       <c r="AG27" s="57"/>
       <c r="AH27" s="58"/>
       <c r="AI27" s="59"/>
       <c r="AJ27" s="60"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="105"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="103"/>
       <c r="AM27" s="57"/>
       <c r="AN27" s="57"/>
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
+      <c r="AS27" s="93"/>
       <c r="AT27" s="56"/>
       <c r="AU27" s="57"/>
       <c r="AV27" s="58"/>
@@ -4249,12 +4254,8 @@
       <c r="A28" s="12">
         <v>310</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="49">
-        <v>3</v>
-      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4282,23 +4283,23 @@
       <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
+      <c r="AB28" s="115"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="103"/>
       <c r="AF28" s="57"/>
       <c r="AG28" s="57"/>
       <c r="AH28" s="58"/>
       <c r="AI28" s="59"/>
       <c r="AJ28" s="60"/>
-      <c r="AK28" s="105"/>
-      <c r="AL28" s="105"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="103"/>
       <c r="AM28" s="57"/>
       <c r="AN28" s="57"/>
       <c r="AO28" s="58"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
-      <c r="AR28" s="55"/>
+      <c r="AR28" s="96"/>
       <c r="AS28" s="55"/>
       <c r="AT28" s="56"/>
       <c r="AU28" s="57"/>
@@ -4322,12 +4323,8 @@
       <c r="A29" s="12">
         <v>311</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="49">
-        <v>5</v>
-      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4355,23 +4352,23 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="105"/>
-      <c r="AE29" s="105"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
       <c r="AF29" s="57"/>
       <c r="AG29" s="57"/>
       <c r="AH29" s="58"/>
       <c r="AI29" s="70"/>
       <c r="AJ29" s="71"/>
-      <c r="AK29" s="105"/>
-      <c r="AL29" s="105"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="103"/>
       <c r="AM29" s="57"/>
       <c r="AN29" s="57"/>
       <c r="AO29" s="58"/>
       <c r="AP29" s="70"/>
       <c r="AQ29" s="71"/>
-      <c r="AR29" s="93"/>
+      <c r="AR29" s="96"/>
       <c r="AS29" s="55"/>
       <c r="AT29" s="56"/>
       <c r="AU29" s="57"/>
@@ -4426,15 +4423,15 @@
       <c r="AA30" s="58"/>
       <c r="AB30" s="101"/>
       <c r="AC30" s="102"/>
-      <c r="AD30" s="105"/>
-      <c r="AE30" s="105"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
       <c r="AF30" s="57"/>
       <c r="AG30" s="57"/>
       <c r="AH30" s="58"/>
       <c r="AI30" s="68"/>
       <c r="AJ30" s="69"/>
-      <c r="AK30" s="105"/>
-      <c r="AL30" s="105"/>
+      <c r="AK30" s="103"/>
+      <c r="AL30" s="103"/>
       <c r="AM30" s="57"/>
       <c r="AN30" s="57"/>
       <c r="AO30" s="58"/>
@@ -4572,16 +4569,16 @@
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="98"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="105"/>
-      <c r="AE32" s="105"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="103"/>
       <c r="AF32" s="57"/>
       <c r="AG32" s="57"/>
       <c r="AH32" s="58"/>
       <c r="AI32" s="53"/>
       <c r="AJ32" s="54"/>
-      <c r="AK32" s="105"/>
-      <c r="AL32" s="105"/>
+      <c r="AK32" s="103"/>
+      <c r="AL32" s="103"/>
       <c r="AM32" s="57"/>
       <c r="AN32" s="57"/>
       <c r="AO32" s="58"/>
@@ -4646,15 +4643,15 @@
       <c r="AA33" s="58"/>
       <c r="AB33" s="100"/>
       <c r="AC33" s="95"/>
-      <c r="AD33" s="105"/>
-      <c r="AE33" s="105"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="103"/>
       <c r="AF33" s="57"/>
       <c r="AG33" s="57"/>
       <c r="AH33" s="58"/>
       <c r="AI33" s="59"/>
       <c r="AJ33" s="60"/>
-      <c r="AK33" s="105"/>
-      <c r="AL33" s="105"/>
+      <c r="AK33" s="103"/>
+      <c r="AL33" s="103"/>
       <c r="AM33" s="57"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="58"/>
@@ -4719,15 +4716,15 @@
       <c r="AA34" s="58"/>
       <c r="AB34" s="100"/>
       <c r="AC34" s="95"/>
-      <c r="AD34" s="105"/>
-      <c r="AE34" s="105"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="103"/>
       <c r="AF34" s="57"/>
       <c r="AG34" s="57"/>
       <c r="AH34" s="58"/>
       <c r="AI34" s="59"/>
       <c r="AJ34" s="60"/>
-      <c r="AK34" s="105"/>
-      <c r="AL34" s="105"/>
+      <c r="AK34" s="103"/>
+      <c r="AL34" s="103"/>
       <c r="AM34" s="57"/>
       <c r="AN34" s="57"/>
       <c r="AO34" s="58"/>
@@ -4788,15 +4785,15 @@
       <c r="AA35" s="58"/>
       <c r="AB35" s="101"/>
       <c r="AC35" s="102"/>
-      <c r="AD35" s="105"/>
-      <c r="AE35" s="105"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
       <c r="AF35" s="57"/>
       <c r="AG35" s="57"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="68"/>
       <c r="AJ35" s="69"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
+      <c r="AK35" s="103"/>
+      <c r="AL35" s="103"/>
       <c r="AM35" s="57"/>
       <c r="AN35" s="57"/>
       <c r="AO35" s="58"/>
@@ -4933,15 +4930,15 @@
       <c r="AA37" s="58"/>
       <c r="AB37" s="98"/>
       <c r="AC37" s="99"/>
-      <c r="AD37" s="105"/>
-      <c r="AE37" s="105"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="103"/>
       <c r="AF37" s="57"/>
       <c r="AG37" s="57"/>
       <c r="AH37" s="58"/>
       <c r="AI37" s="53"/>
       <c r="AJ37" s="54"/>
-      <c r="AK37" s="105"/>
-      <c r="AL37" s="105"/>
+      <c r="AK37" s="103"/>
+      <c r="AL37" s="103"/>
       <c r="AM37" s="57"/>
       <c r="AN37" s="57"/>
       <c r="AO37" s="58"/>
@@ -5002,15 +4999,15 @@
       <c r="AA38" s="58"/>
       <c r="AB38" s="101"/>
       <c r="AC38" s="102"/>
-      <c r="AD38" s="105"/>
-      <c r="AE38" s="105"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="103"/>
       <c r="AF38" s="57"/>
       <c r="AG38" s="57"/>
       <c r="AH38" s="58"/>
       <c r="AI38" s="68"/>
       <c r="AJ38" s="69"/>
-      <c r="AK38" s="105"/>
-      <c r="AL38" s="105"/>
+      <c r="AK38" s="103"/>
+      <c r="AL38" s="103"/>
       <c r="AM38" s="57"/>
       <c r="AN38" s="57"/>
       <c r="AO38" s="58"/>
@@ -5149,15 +5146,15 @@
       <c r="AA40" s="58"/>
       <c r="AB40" s="98"/>
       <c r="AC40" s="99"/>
-      <c r="AD40" s="105"/>
-      <c r="AE40" s="105"/>
+      <c r="AD40" s="103"/>
+      <c r="AE40" s="103"/>
       <c r="AF40" s="57"/>
       <c r="AG40" s="57"/>
       <c r="AH40" s="58"/>
       <c r="AI40" s="53"/>
       <c r="AJ40" s="54"/>
-      <c r="AK40" s="105"/>
-      <c r="AL40" s="105"/>
+      <c r="AK40" s="103"/>
+      <c r="AL40" s="103"/>
       <c r="AM40" s="57"/>
       <c r="AN40" s="57"/>
       <c r="AO40" s="58"/>
@@ -5222,15 +5219,15 @@
       <c r="AA41" s="58"/>
       <c r="AB41" s="100"/>
       <c r="AC41" s="61"/>
-      <c r="AD41" s="105"/>
-      <c r="AE41" s="105"/>
+      <c r="AD41" s="103"/>
+      <c r="AE41" s="103"/>
       <c r="AF41" s="57"/>
       <c r="AG41" s="57"/>
       <c r="AH41" s="58"/>
       <c r="AI41" s="59"/>
       <c r="AJ41" s="60"/>
-      <c r="AK41" s="105"/>
-      <c r="AL41" s="105"/>
+      <c r="AK41" s="103"/>
+      <c r="AL41" s="103"/>
       <c r="AM41" s="57"/>
       <c r="AN41" s="57"/>
       <c r="AO41" s="58"/>
@@ -5291,15 +5288,15 @@
       <c r="AA42" s="58"/>
       <c r="AB42" s="101"/>
       <c r="AC42" s="102"/>
-      <c r="AD42" s="105"/>
-      <c r="AE42" s="105"/>
+      <c r="AD42" s="103"/>
+      <c r="AE42" s="103"/>
       <c r="AF42" s="57"/>
       <c r="AG42" s="57"/>
       <c r="AH42" s="58"/>
       <c r="AI42" s="68"/>
       <c r="AJ42" s="69"/>
-      <c r="AK42" s="105"/>
-      <c r="AL42" s="105"/>
+      <c r="AK42" s="103"/>
+      <c r="AL42" s="103"/>
       <c r="AM42" s="57"/>
       <c r="AN42" s="57"/>
       <c r="AO42" s="58"/>
@@ -5332,11 +5329,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>89</v>
+        <v>90.5</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5358,7 +5355,7 @@
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5611,10 +5608,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="116"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="78" t="s">
         <v>14</v>
       </c>
@@ -5623,11 +5620,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="str">
+      <c r="A3" s="111" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="114"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="79">
         <f>Zeitplanung!C9</f>
         <v>4</v>
@@ -5640,31 +5637,31 @@
       <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="str">
+      <c r="A4" s="111" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="79">
         <f>Zeitplanung!C14</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D4" s="79">
         <f>Zeitplanung!D14</f>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="E4" s="81"/>
       <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="str">
+      <c r="A5" s="111" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="114"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
@@ -5674,11 +5671,11 @@
       <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="str">
+      <c r="A6" s="111" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="79">
         <f>Zeitplanung!C31</f>
         <v>6</v>
@@ -5690,11 +5687,11 @@
       <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="str">
+      <c r="A7" s="111" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="114"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="79">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5706,11 +5703,11 @@
       <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="str">
+      <c r="A8" s="111" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="114"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="79">
         <f>Zeitplanung!C39</f>
         <v>8</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D3B4E0-9EBC-0641-9557-43748A2B4821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AA2E7F-6A6C-C749-AD3C-514A5EEFBFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1505,6 +1505,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1535,21 +1550,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1657,7 +1657,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -1725,13 +1725,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2238,8 +2238,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2558,88 +2558,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="106"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="107" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="107" t="s">
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="109" t="s">
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="107" t="s">
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="108"/>
-      <c r="AP7" s="109" t="s">
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="108"/>
-      <c r="AW7" s="107" t="s">
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="108"/>
-      <c r="BD7" s="109" t="s">
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="112"/>
+      <c r="BD7" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="107"/>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="107"/>
-      <c r="BJ7" s="110"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="114"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D12" s="82">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -3078,7 +3078,9 @@
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="63"/>
+      <c r="K12" s="63">
+        <v>0.25</v>
+      </c>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
       <c r="N12" s="59"/>
@@ -3511,11 +3513,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3667,7 +3669,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3677,7 +3679,9 @@
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="94"/>
+      <c r="K20" s="94">
+        <v>2</v>
+      </c>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
@@ -3738,11 +3742,11 @@
         <v>57</v>
       </c>
       <c r="C21" s="49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3752,7 +3756,9 @@
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="94"/>
+      <c r="K21" s="94">
+        <v>5</v>
+      </c>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
@@ -4141,7 +4147,7 @@
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="115"/>
+      <c r="AB26" s="106"/>
       <c r="AC26" s="84"/>
       <c r="AD26" s="103"/>
       <c r="AE26" s="103"/>
@@ -4214,8 +4220,8 @@
       <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="115"/>
+      <c r="AB27" s="107"/>
+      <c r="AC27" s="106"/>
       <c r="AD27" s="103"/>
       <c r="AE27" s="103"/>
       <c r="AF27" s="57"/>
@@ -4283,7 +4289,7 @@
       <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="115"/>
+      <c r="AB28" s="106"/>
       <c r="AC28" s="84"/>
       <c r="AD28" s="103"/>
       <c r="AE28" s="103"/>
@@ -4352,8 +4358,8 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="118"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="109"/>
       <c r="AD29" s="103"/>
       <c r="AE29" s="103"/>
       <c r="AF29" s="57"/>
@@ -5329,11 +5335,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>90.5</v>
+        <v>88.5</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>5</v>
+        <v>12.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5355,7 +5361,7 @@
       </c>
       <c r="K43" s="39">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.25</v>
       </c>
       <c r="L43" s="39">
         <f t="shared" si="3"/>
@@ -5608,10 +5614,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="114"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="78" t="s">
         <v>14</v>
       </c>
@@ -5620,28 +5626,28 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="111" t="str">
+      <c r="A3" s="115" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="79">
         <f>Zeitplanung!C9</f>
         <v>4</v>
       </c>
       <c r="D3" s="79">
         <f>Zeitplanung!D9</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="str">
+      <c r="A4" s="115" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="79">
         <f>Zeitplanung!C14</f>
         <v>2.5</v>
@@ -5654,28 +5660,28 @@
       <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="str">
+      <c r="A5" s="115" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="112"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="str">
+      <c r="A6" s="115" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="79">
         <f>Zeitplanung!C31</f>
         <v>6</v>
@@ -5687,11 +5693,11 @@
       <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="str">
+      <c r="A7" s="115" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="79">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5703,11 +5709,11 @@
       <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="str">
+      <c r="A8" s="115" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="79">
         <f>Zeitplanung!C39</f>
         <v>8</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AA2E7F-6A6C-C749-AD3C-514A5EEFBFC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DF0D8A-774D-6B42-954B-8307209231A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1550,6 +1550,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2239,7 +2242,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3742,7 +3745,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="49">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" s="82">
         <f t="shared" si="0"/>
@@ -3764,7 +3767,7 @@
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
+      <c r="Q21" s="96"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3819,7 +3822,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22" s="82">
         <f t="shared" si="0"/>
@@ -3838,13 +3841,14 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="96"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="119"/>
       <c r="R22" s="93"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="93"/>
+      <c r="W22" s="96"/>
       <c r="X22" s="96"/>
       <c r="Y22" s="97"/>
       <c r="Z22" s="57"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DF0D8A-774D-6B42-954B-8307209231A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E620E12B-3162-ED44-9B1F-65330854FCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1520,6 +1520,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1550,9 +1553,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1734,7 +1734,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2241,8 +2241,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2561,88 +2561,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="110"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="111" t="s">
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="111" t="s">
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="113" t="s">
+      <c r="V7" s="112"/>
+      <c r="W7" s="112"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="112"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="112"/>
-      <c r="AI7" s="111" t="s">
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="111"/>
-      <c r="AL7" s="111"/>
-      <c r="AM7" s="111"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="112"/>
-      <c r="AP7" s="113" t="s">
+      <c r="AJ7" s="112"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="112"/>
+      <c r="AM7" s="112"/>
+      <c r="AN7" s="112"/>
+      <c r="AO7" s="113"/>
+      <c r="AP7" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="112"/>
-      <c r="AW7" s="111" t="s">
+      <c r="AQ7" s="112"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="112"/>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="112"/>
+      <c r="AV7" s="113"/>
+      <c r="AW7" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="AX7" s="111"/>
-      <c r="AY7" s="111"/>
-      <c r="AZ7" s="111"/>
-      <c r="BA7" s="111"/>
-      <c r="BB7" s="111"/>
-      <c r="BC7" s="112"/>
-      <c r="BD7" s="113" t="s">
+      <c r="AX7" s="112"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="112"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="112"/>
+      <c r="BC7" s="113"/>
+      <c r="BD7" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="BE7" s="111"/>
-      <c r="BF7" s="111"/>
-      <c r="BG7" s="111"/>
-      <c r="BH7" s="111"/>
-      <c r="BI7" s="111"/>
-      <c r="BJ7" s="114"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="112"/>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="112"/>
+      <c r="BJ7" s="115"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3689,7 +3689,9 @@
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="93"/>
+      <c r="P20" s="93">
+        <v>3</v>
+      </c>
       <c r="Q20" s="93"/>
       <c r="R20" s="94"/>
       <c r="S20" s="57"/>
@@ -3749,7 +3751,7 @@
       </c>
       <c r="D21" s="82">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21" s="50">
         <v>1</v>
@@ -3766,7 +3768,9 @@
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="93"/>
+      <c r="P21" s="93">
+        <v>2</v>
+      </c>
       <c r="Q21" s="96"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
@@ -3826,7 +3830,7 @@
       </c>
       <c r="D22" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3841,8 +3845,10 @@
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="119"/>
+      <c r="P22" s="93">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="110"/>
       <c r="R22" s="93"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -5343,7 +5349,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>12.25</v>
+        <v>20.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5385,7 +5391,7 @@
       </c>
       <c r="P43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
@@ -5618,10 +5624,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="118"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="78" t="s">
         <v>14</v>
       </c>
@@ -5630,11 +5636,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="str">
+      <c r="A3" s="116" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="116"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="79">
         <f>Zeitplanung!C9</f>
         <v>4</v>
@@ -5647,11 +5653,11 @@
       <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="str">
+      <c r="A4" s="116" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="116"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="79">
         <f>Zeitplanung!C14</f>
         <v>2.5</v>
@@ -5664,28 +5670,28 @@
       <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="115" t="str">
+      <c r="A5" s="116" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="116"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
         <v>68</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="str">
+      <c r="A6" s="116" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="116"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="79">
         <f>Zeitplanung!C31</f>
         <v>6</v>
@@ -5697,11 +5703,11 @@
       <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="str">
+      <c r="A7" s="116" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="79">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5713,11 +5719,11 @@
       <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="str">
+      <c r="A8" s="116" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="116"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="79">
         <f>Zeitplanung!C39</f>
         <v>8</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E620E12B-3162-ED44-9B1F-65330854FCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE34DAD-B894-DC41-883A-E25293A8ABBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2242,7 +2242,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE34DAD-B894-DC41-883A-E25293A8ABBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C487CB-F01A-AB44-9651-2DCD0B653362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1734,7 +1734,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2241,8 +2241,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3692,7 +3692,9 @@
       <c r="P20" s="93">
         <v>3</v>
       </c>
-      <c r="Q20" s="93"/>
+      <c r="Q20" s="93">
+        <v>3</v>
+      </c>
       <c r="R20" s="94"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3830,7 +3832,7 @@
       </c>
       <c r="D22" s="82">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" s="50">
         <v>1</v>
@@ -3848,7 +3850,9 @@
       <c r="P22" s="93">
         <v>3</v>
       </c>
-      <c r="Q22" s="110"/>
+      <c r="Q22" s="110">
+        <v>5</v>
+      </c>
       <c r="R22" s="93"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -5349,7 +5353,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>20.25</v>
+        <v>28.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5395,7 +5399,7 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
@@ -5681,7 +5685,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C487CB-F01A-AB44-9651-2DCD0B653362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDD75CA-BA1F-DE46-94F0-696B7BD9D3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -2241,8 +2241,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8073315-1132-764A-A68A-D3484ADEB3FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D9C03-B85F-B145-B105-1DAD13F00265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1734,7 +1734,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2241,8 +2241,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3941,7 +3941,9 @@
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="95"/>
+      <c r="W23" s="95">
+        <v>4</v>
+      </c>
       <c r="X23" s="95"/>
       <c r="Y23" s="97"/>
       <c r="Z23" s="57"/>
@@ -4144,7 +4146,7 @@
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4164,7 +4166,9 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="55"/>
+      <c r="W26" s="55">
+        <v>4</v>
+      </c>
       <c r="X26" s="55"/>
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
@@ -5361,7 +5365,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>36.25</v>
+        <v>44.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5431,7 +5435,7 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
@@ -5693,7 +5697,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>32.5</v>
+        <v>40.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D9C03-B85F-B145-B105-1DAD13F00265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F8F80-2370-954F-94D5-776D44813F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1140,7 +1146,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1553,6 +1559,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1734,7 +1744,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.5</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2241,8 +2251,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="162" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3522,7 +3532,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3674,7 +3684,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3705,7 +3715,9 @@
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
       <c r="W20" s="96"/>
-      <c r="X20" s="93"/>
+      <c r="X20" s="93">
+        <v>2</v>
+      </c>
       <c r="Y20" s="94"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
@@ -3913,11 +3925,11 @@
         <v>52</v>
       </c>
       <c r="C23" s="49">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3944,12 +3956,14 @@
       <c r="W23" s="95">
         <v>4</v>
       </c>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="97"/>
+      <c r="X23" s="95">
+        <v>3.5</v>
+      </c>
+      <c r="Y23" s="94"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="61"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="95"/>
       <c r="AD23" s="64"/>
       <c r="AE23" s="64"/>
       <c r="AF23" s="57"/>
@@ -3964,7 +3978,7 @@
       <c r="AO23" s="58"/>
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
-      <c r="AR23" s="61"/>
+      <c r="AR23" s="95"/>
       <c r="AS23" s="61"/>
       <c r="AT23" s="56"/>
       <c r="AU23" s="57"/>
@@ -3992,7 +4006,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="82">
         <f t="shared" si="0"/>
@@ -4019,7 +4033,7 @@
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
       <c r="W24" s="96"/>
-      <c r="X24" s="93"/>
+      <c r="X24" s="96"/>
       <c r="Y24" s="94"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
@@ -4039,7 +4053,7 @@
       <c r="AO24" s="58"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
-      <c r="AR24" s="55"/>
+      <c r="AR24" s="96"/>
       <c r="AS24" s="55"/>
       <c r="AT24" s="56"/>
       <c r="AU24" s="57"/>
@@ -4067,11 +4081,11 @@
         <v>56</v>
       </c>
       <c r="C25" s="49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="50">
         <v>1</v>
@@ -4093,13 +4107,17 @@
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
+      <c r="W25" s="93">
+        <v>1.5</v>
+      </c>
+      <c r="X25" s="93">
+        <v>1.5</v>
+      </c>
       <c r="Y25" s="97"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="95"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="84"/>
       <c r="AD25" s="103"/>
       <c r="AE25" s="103"/>
       <c r="AF25" s="57"/>
@@ -4114,7 +4132,7 @@
       <c r="AO25" s="58"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
-      <c r="AR25" s="55"/>
+      <c r="AR25" s="120"/>
       <c r="AS25" s="55"/>
       <c r="AT25" s="56"/>
       <c r="AU25" s="57"/>
@@ -4146,7 +4164,7 @@
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4166,10 +4184,12 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="55">
-        <v>4</v>
-      </c>
-      <c r="X26" s="55"/>
+      <c r="W26" s="93">
+        <v>2.5</v>
+      </c>
+      <c r="X26" s="93">
+        <v>1</v>
+      </c>
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
@@ -4189,7 +4209,7 @@
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="93"/>
+      <c r="AR26" s="96"/>
       <c r="AS26" s="55"/>
       <c r="AT26" s="56"/>
       <c r="AU26" s="57"/>
@@ -5365,7 +5385,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>44.25</v>
+        <v>52.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5439,7 +5459,7 @@
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
@@ -5697,7 +5717,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>40.5</v>
+        <v>48.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435F8F80-2370-954F-94D5-776D44813F12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DAD915-EBFE-0E42-B2E4-8BA8FD48BE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1529,6 +1529,10 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,10 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1670,7 +1670,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -1744,7 +1744,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.5</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2251,8 +2251,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2571,88 +2571,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="111"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="112" t="s">
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="112" t="s">
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="114" t="s">
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="112" t="s">
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="AJ7" s="112"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="112"/>
-      <c r="AM7" s="112"/>
-      <c r="AN7" s="112"/>
-      <c r="AO7" s="113"/>
-      <c r="AP7" s="114" t="s">
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="113"/>
+      <c r="AL7" s="113"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="113"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="AQ7" s="112"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="112"/>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="112"/>
-      <c r="AV7" s="113"/>
-      <c r="AW7" s="112" t="s">
+      <c r="AQ7" s="113"/>
+      <c r="AR7" s="113"/>
+      <c r="AS7" s="113"/>
+      <c r="AT7" s="113"/>
+      <c r="AU7" s="113"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="AX7" s="112"/>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="112"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="112"/>
-      <c r="BC7" s="113"/>
-      <c r="BD7" s="114" t="s">
+      <c r="AX7" s="113"/>
+      <c r="AY7" s="113"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="113"/>
+      <c r="BC7" s="114"/>
+      <c r="BD7" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="112"/>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
-      <c r="BI7" s="112"/>
-      <c r="BJ7" s="115"/>
+      <c r="BE7" s="113"/>
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="113"/>
+      <c r="BI7" s="113"/>
+      <c r="BJ7" s="116"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -3528,11 +3528,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="D20" s="82">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="E20" s="50">
         <v>1</v>
@@ -3718,7 +3718,9 @@
       <c r="X20" s="93">
         <v>2</v>
       </c>
-      <c r="Y20" s="94"/>
+      <c r="Y20" s="94">
+        <v>0.5</v>
+      </c>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="100"/>
@@ -3929,7 +3931,7 @@
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3959,7 +3961,9 @@
       <c r="X23" s="95">
         <v>3.5</v>
       </c>
-      <c r="Y23" s="94"/>
+      <c r="Y23" s="94">
+        <v>4.5</v>
+      </c>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="104"/>
@@ -4006,11 +4010,11 @@
         <v>51</v>
       </c>
       <c r="C24" s="49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="82">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(G24:BJ24)</f>
+        <v>3</v>
       </c>
       <c r="E24" s="50">
         <v>1</v>
@@ -4034,10 +4038,12 @@
       <c r="V24" s="60"/>
       <c r="W24" s="96"/>
       <c r="X24" s="96"/>
-      <c r="Y24" s="94"/>
+      <c r="Y24" s="94">
+        <v>3</v>
+      </c>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="104"/>
+      <c r="AB24" s="106"/>
       <c r="AC24" s="84"/>
       <c r="AD24" s="103"/>
       <c r="AE24" s="103"/>
@@ -4132,7 +4138,7 @@
       <c r="AO25" s="58"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
-      <c r="AR25" s="120"/>
+      <c r="AR25" s="111"/>
       <c r="AS25" s="55"/>
       <c r="AT25" s="56"/>
       <c r="AU25" s="57"/>
@@ -5381,11 +5387,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>88.5</v>
+        <v>86.5</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>52.25</v>
+        <v>60.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5463,7 +5469,7 @@
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5660,10 +5666,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="120"/>
       <c r="C2" s="78" t="s">
         <v>14</v>
       </c>
@@ -5672,11 +5678,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="str">
+      <c r="A3" s="117" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="79">
         <f>Zeitplanung!C9</f>
         <v>4</v>
@@ -5689,11 +5695,11 @@
       <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="str">
+      <c r="A4" s="117" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="79">
         <f>Zeitplanung!C14</f>
         <v>2.5</v>
@@ -5706,28 +5712,28 @@
       <c r="F4" s="80"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="str">
+      <c r="A5" s="117" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="117"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>48.5</v>
+        <v>56.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="str">
+      <c r="A6" s="117" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="79">
         <f>Zeitplanung!C31</f>
         <v>6</v>
@@ -5739,11 +5745,11 @@
       <c r="F6" s="80"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="str">
+      <c r="A7" s="117" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="79">
         <f>Zeitplanung!C36</f>
         <v>0</v>
@@ -5755,11 +5761,11 @@
       <c r="F7" s="80"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="str">
+      <c r="A8" s="117" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="79">
         <f>Zeitplanung!C39</f>
         <v>8</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DAD915-EBFE-0E42-B2E4-8BA8FD48BE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8557DE-5635-C84C-BC9F-141A54581C4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1744,7 +1744,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.5</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2251,8 +2251,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>56.5</v>
+        <v>64.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3966,7 +3966,9 @@
       </c>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
-      <c r="AB23" s="104"/>
+      <c r="AB23" s="104">
+        <v>5</v>
+      </c>
       <c r="AC23" s="95"/>
       <c r="AD23" s="64"/>
       <c r="AE23" s="64"/>
@@ -4170,7 +4172,7 @@
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4199,7 +4201,9 @@
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="106"/>
+      <c r="AB26" s="106">
+        <v>3</v>
+      </c>
       <c r="AC26" s="84"/>
       <c r="AD26" s="103"/>
       <c r="AE26" s="103"/>
@@ -5391,7 +5395,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>60.25</v>
+        <v>68.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5481,7 +5485,7 @@
       </c>
       <c r="AB43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC43" s="39">
         <f t="shared" si="3"/>
@@ -5723,7 +5727,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>56.5</v>
+        <v>64.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8557DE-5635-C84C-BC9F-141A54581C4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE2DF1-F99E-914C-9705-B9BF7E095761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38220" yWindow="-10000" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Nr.</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Anforderung NF001 &amp; NF002</t>
+  </si>
+  <si>
+    <t>Anforderung NF005</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1149,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1563,6 +1566,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1670,7 +1677,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -1744,7 +1751,7 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.5</c:v>
+                  <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2251,8 +2258,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3528,11 +3535,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>64.5</v>
+        <v>71.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3931,7 +3938,7 @@
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3969,7 +3976,9 @@
       <c r="AB23" s="104">
         <v>5</v>
       </c>
-      <c r="AC23" s="95"/>
+      <c r="AC23" s="95">
+        <v>3</v>
+      </c>
       <c r="AD23" s="64"/>
       <c r="AE23" s="64"/>
       <c r="AF23" s="57"/>
@@ -4089,7 +4098,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="82">
         <f t="shared" si="0"/>
@@ -4168,11 +4177,11 @@
         <v>54</v>
       </c>
       <c r="C26" s="49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4202,9 +4211,11 @@
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="106">
-        <v>3</v>
-      </c>
-      <c r="AC26" s="84"/>
+        <v>2</v>
+      </c>
+      <c r="AC26" s="84">
+        <v>2</v>
+      </c>
       <c r="AD26" s="103"/>
       <c r="AE26" s="103"/>
       <c r="AF26" s="57"/>
@@ -4316,11 +4327,15 @@
       <c r="A28" s="12">
         <v>310</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="49">
+        <v>4</v>
+      </c>
       <c r="D28" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="51"/>
@@ -4346,7 +4361,9 @@
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="106"/>
-      <c r="AC28" s="84"/>
+      <c r="AC28" s="121">
+        <v>3</v>
+      </c>
       <c r="AD28" s="103"/>
       <c r="AE28" s="103"/>
       <c r="AF28" s="57"/>
@@ -5391,11 +5408,11 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>86.5</v>
+        <v>90.5</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>68.25</v>
+        <v>75.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5485,11 +5502,11 @@
       </c>
       <c r="AB43" s="39">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD43" s="39">
         <f t="shared" si="3"/>
@@ -5723,11 +5740,11 @@
       <c r="B5" s="118"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>64.5</v>
+        <v>71.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE2DF1-F99E-914C-9705-B9BF7E095761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CE405-8DC0-C74E-9CA8-2EE7D383DABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38220" yWindow="-10000" windowWidth="35840" windowHeight="20480" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38220" yWindow="-9980" windowWidth="35840" windowHeight="19680" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,12 +499,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1149,7 +1143,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1532,7 +1526,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1566,10 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1677,10 +1667,10 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1751,10 +1741,10 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.5</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2258,8 +2248,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3535,11 +3525,11 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>71.5</v>
+        <v>74.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -4021,7 +4011,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="82">
         <f>SUM(G24:BJ24)</f>
@@ -4149,7 +4139,7 @@
       <c r="AO25" s="58"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
-      <c r="AR25" s="111"/>
+      <c r="AR25" s="96"/>
       <c r="AS25" s="55"/>
       <c r="AT25" s="56"/>
       <c r="AU25" s="57"/>
@@ -4262,7 +4252,7 @@
       </c>
       <c r="D27" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
@@ -4303,7 +4293,9 @@
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
-      <c r="AR27" s="55"/>
+      <c r="AR27" s="55">
+        <v>3</v>
+      </c>
       <c r="AS27" s="93"/>
       <c r="AT27" s="56"/>
       <c r="AU27" s="57"/>
@@ -4361,7 +4353,7 @@
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="106"/>
-      <c r="AC28" s="121">
+      <c r="AC28" s="111">
         <v>3</v>
       </c>
       <c r="AD28" s="103"/>
@@ -4545,11 +4537,11 @@
       </c>
       <c r="C31" s="41">
         <f>SUM(C32:C35)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4622,7 +4614,7 @@
       </c>
       <c r="D32" s="82">
         <f>SUM(G32:BJ32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="51"/>
@@ -4663,7 +4655,9 @@
       <c r="AO32" s="58"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
-      <c r="AR32" s="93"/>
+      <c r="AR32" s="93">
+        <v>1</v>
+      </c>
       <c r="AS32" s="96"/>
       <c r="AT32" s="56"/>
       <c r="AU32" s="57"/>
@@ -4695,7 +4689,7 @@
       </c>
       <c r="D33" s="82">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="51"/>
@@ -4736,7 +4730,9 @@
       <c r="AO33" s="58"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
-      <c r="AR33" s="93"/>
+      <c r="AR33" s="93">
+        <v>1</v>
+      </c>
       <c r="AS33" s="96"/>
       <c r="AT33" s="56"/>
       <c r="AU33" s="57"/>
@@ -4764,11 +4760,11 @@
         <v>23</v>
       </c>
       <c r="C34" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4809,7 +4805,9 @@
       <c r="AO34" s="58"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="93"/>
+      <c r="AR34" s="93">
+        <v>3</v>
+      </c>
       <c r="AS34" s="96"/>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
@@ -5412,7 +5410,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>75.25</v>
+        <v>83.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5566,7 +5564,7 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
@@ -5740,11 +5738,11 @@
       <c r="B5" s="118"/>
       <c r="C5" s="79">
         <f>Zeitplanung!C18</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>71.5</v>
+        <v>74.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
@@ -5757,11 +5755,11 @@
       <c r="B6" s="118"/>
       <c r="C6" s="79">
         <f>Zeitplanung!C31</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="79">
         <f>Zeitplanung!D31</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="80"/>
     </row>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dawidkapka/blj-notewriter/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6CE405-8DC0-C74E-9CA8-2EE7D383DABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07486F21-DB71-A641-9CA0-08629B0F7815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38220" yWindow="-9980" windowWidth="35840" windowHeight="19680" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1735,22 +1735,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.5</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,8 +2248,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D9" s="42">
         <f>SUM(D10:D13)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="31"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D12" s="82">
         <f>SUM(G12:BJ12)</f>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E12" s="50">
         <v>1</v>
@@ -3106,7 +3106,9 @@
       <c r="V12" s="60"/>
       <c r="W12" s="61"/>
       <c r="X12" s="61"/>
-      <c r="Y12" s="63"/>
+      <c r="Y12" s="63">
+        <v>0.5</v>
+      </c>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
       <c r="AB12" s="100"/>
@@ -3529,7 +3531,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>74.5</v>
+        <v>75.5</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3928,7 +3930,7 @@
       </c>
       <c r="D23" s="82">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="E23" s="50">
         <v>1</v>
@@ -3959,7 +3961,7 @@
         <v>3.5</v>
       </c>
       <c r="Y23" s="94">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
@@ -4171,7 +4173,7 @@
       </c>
       <c r="D26" s="82">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4201,7 +4203,7 @@
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC26" s="84">
         <v>2</v>
@@ -4252,7 +4254,7 @@
       </c>
       <c r="D27" s="82">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
@@ -4296,7 +4298,9 @@
       <c r="AR27" s="55">
         <v>3</v>
       </c>
-      <c r="AS27" s="93"/>
+      <c r="AS27" s="93">
+        <v>0.5</v>
+      </c>
       <c r="AT27" s="56"/>
       <c r="AU27" s="57"/>
       <c r="AV27" s="58"/>
@@ -4541,7 +4545,7 @@
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="31"/>
@@ -4764,7 +4768,7 @@
       </c>
       <c r="D34" s="82">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="51"/>
@@ -4808,7 +4812,9 @@
       <c r="AR34" s="93">
         <v>3</v>
       </c>
-      <c r="AS34" s="96"/>
+      <c r="AS34" s="96">
+        <v>2.5</v>
+      </c>
       <c r="AT34" s="56"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
@@ -5123,7 +5129,7 @@
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="31"/>
@@ -5196,7 +5202,7 @@
       </c>
       <c r="D40" s="82">
         <f>SUM(G40:BJ40)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="51"/>
@@ -5238,7 +5244,9 @@
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
       <c r="AR40" s="93"/>
-      <c r="AS40" s="93"/>
+      <c r="AS40" s="93">
+        <v>5</v>
+      </c>
       <c r="AT40" s="56"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
@@ -5410,7 +5418,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>83.25</v>
+        <v>92.25</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5500,7 +5508,7 @@
       </c>
       <c r="AB43" s="39">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC43" s="39">
         <f t="shared" si="3"/>
@@ -5568,7 +5576,7 @@
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
@@ -5708,7 +5716,7 @@
       </c>
       <c r="D3" s="79">
         <f>Zeitplanung!D9</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="80"/>
@@ -5742,7 +5750,7 @@
       </c>
       <c r="D5" s="79">
         <f>Zeitplanung!D18</f>
-        <v>74.5</v>
+        <v>75.5</v>
       </c>
       <c r="E5" s="81"/>
       <c r="F5" s="80"/>
@@ -5759,7 +5767,7 @@
       </c>
       <c r="D6" s="79">
         <f>Zeitplanung!D31</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F6" s="80"/>
     </row>
@@ -5791,7 +5799,7 @@
       </c>
       <c r="D8" s="79">
         <f>Zeitplanung!D39</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="80"/>
     </row>
